--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_34.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1607166.521231435</v>
+        <v>1634119.556215946</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17298407.14104213</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484444</v>
+        <v>278692.0725916859</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6376673.152013067</v>
+        <v>6477558.938065342</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>77.41966148589133</v>
       </c>
       <c r="D2" t="n">
-        <v>358.8320064489648</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -671,10 +671,10 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
         <v>128.8768572327044</v>
@@ -817,7 +817,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>79.19274592540066</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -826,10 +826,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>216.2017488798277</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>308.3086748172354</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -905,7 +905,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>267.9224292800644</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1060,19 +1060,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>59.39028919867159</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>8.129390960577897</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1136,22 +1136,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>275.04928584498</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>331.484581935008</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1306,10 +1306,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>8.129390960577897</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>136.0564930766999</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.70477936198487</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1540,10 +1540,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225728</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>129.2606839525044</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1619,13 +1619,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>209.6346990483924</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1777,7 +1777,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617044</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225757</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>150.872136547013</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2002,25 +2002,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>109.4731500843522</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2242,7 +2242,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>24.62703520776651</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2369,7 +2369,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U23" t="n">
         <v>256.6300796561533</v>
@@ -2488,7 +2488,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456170498</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>148.8597651552996</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2773,7 +2773,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,7 +3007,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>144.4937753855482</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3035,7 +3035,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225662</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G35" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>26.24351759540795</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735226111</v>
       </c>
       <c r="T37" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>26.24351759540815</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>178.6893097904013</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655126</v>
       </c>
       <c r="W41" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>167.6478022326387</v>
+        <v>28.46824604904392</v>
       </c>
       <c r="F43" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>26.2435175954079</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>28.87953640372015</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U44" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.2363335358519</v>
+        <v>75.86622810093029</v>
       </c>
       <c r="T46" t="n">
-        <v>112.0152145377533</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>283.6733315691424</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>484.0636759001415</v>
+        <v>888.1040799405456</v>
       </c>
       <c r="C2" t="n">
-        <v>449.9616071239689</v>
+        <v>809.9024016719685</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>778.0330208868171</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>748.2986800855164</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4331,19 +4331,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4367,13 +4367,13 @@
         <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>929.7110254252771</v>
+        <v>1333.751429465681</v>
       </c>
       <c r="X2" t="n">
-        <v>914.6089660449918</v>
+        <v>1318.649370085396</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.3228423446452</v>
+        <v>1314.403650425453</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4413,16 +4413,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1413766661235</v>
+        <v>791.8706668136845</v>
       </c>
       <c r="C4" t="n">
-        <v>369.5796651493484</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D4" t="n">
-        <v>203.7016723508711</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G4" t="n">
         <v>33.94366860160834</v>
@@ -4486,52 +4486,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>68.8461756808652</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>343.6046302520008</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>761.8145120199619</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>761.8145120199619</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V4" t="n">
-        <v>1478.797825151298</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="W4" t="n">
-        <v>1206.77142073759</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="X4" t="n">
-        <v>961.3796660710025</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="Y4" t="n">
-        <v>733.9599953851107</v>
+        <v>983.6892855326716</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>820.8072974370156</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>382.6648246204389</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>350.7954438352875</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>321.0611030339867</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>557.7649106726471</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.865694717427</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762207</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720802</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657696</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657696</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657696</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2075.350505591522</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>1670.495051002555</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>1251.352587581866</v>
       </c>
       <c r="Y5" t="n">
-        <v>464.8993883704147</v>
+        <v>843.0664638815193</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174123</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.1680387732647</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993477</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="L6" t="n">
-        <v>1224.671464618085</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1224.671464618085</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1224.671464618085</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1224.671464618085</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1224.671464618085</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1032.553386008951</v>
+        <v>614.4535569886712</v>
       </c>
       <c r="C7" t="n">
-        <v>859.9916744921758</v>
+        <v>441.8918454718961</v>
       </c>
       <c r="D7" t="n">
-        <v>694.1136816936985</v>
+        <v>276.0138526734188</v>
       </c>
       <c r="E7" t="n">
-        <v>524.3556779444357</v>
+        <v>276.0138526734188</v>
       </c>
       <c r="F7" t="n">
-        <v>347.6486239061919</v>
+        <v>216.0236615636495</v>
       </c>
       <c r="G7" t="n">
-        <v>182.0573489320196</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="H7" t="n">
-        <v>42.1551746223941</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>325.1908411606128</v>
       </c>
       <c r="L7" t="n">
-        <v>341.7616130750586</v>
+        <v>743.4007229285738</v>
       </c>
       <c r="M7" t="n">
-        <v>341.7616130750586</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2362.377960771855</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2116.49851435031</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1838.065513603416</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1551.110005473846</v>
       </c>
       <c r="W7" t="n">
-        <v>1697.183430080417</v>
+        <v>1279.083601060138</v>
       </c>
       <c r="X7" t="n">
-        <v>1451.79167541383</v>
+        <v>1033.69184639355</v>
       </c>
       <c r="Y7" t="n">
-        <v>1224.372004727938</v>
+        <v>806.2721757076583</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>1660.657022731622</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>1626.554953955449</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>1190.645169129893</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>756.8704242881886</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>733.0433987378004</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>331.6455673610643</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1334.566480014244</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W8" t="n">
-        <v>929.7110254252771</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X8" t="n">
-        <v>510.5685620045878</v>
+        <v>1687.161908836068</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.7356509591251</v>
+        <v>1682.916189176125</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1032.553386008951</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C10" t="n">
-        <v>859.9916744921758</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D10" t="n">
-        <v>694.1136816936985</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E10" t="n">
-        <v>524.3556779444357</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F10" t="n">
-        <v>347.6486239061919</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
-        <v>182.0573489320196</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>42.1551746223941</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W10" t="n">
-        <v>1697.183430080417</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X10" t="n">
-        <v>1451.79167541383</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y10" t="n">
-        <v>1224.372004727938</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.314042074141</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.171569257564</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.261784432008</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.487039590304</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6196099995113</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2217786227753</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>97.09162406599152</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9295221460494</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.279814104227</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.339780357087</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.339780357087</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N11" t="n">
-        <v>2441.339780357087</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3289.779009111529</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4118.088883944925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4664.58766990352</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>4833.741734656576</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4803.736907018208</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4803.736907018208</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.514604335224</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.897654269051</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.042199680084</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.899736259395</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.613612559048</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.8465796844243</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.3901185210666</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.2998296676199</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.1794149945736</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.7955766107352</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4104868769191</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7385078535891</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.2968328198015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>447.2968328198015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>447.2968328198015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>447.2968328198015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>447.2968328198015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>447.2968328198015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.741818077601</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.914596171941</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.459158620323</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.280514950925</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.943967950893</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.826450012893</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.503695746087</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6362599849667</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.1504807641875</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.1708717700626</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6091602532877</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D13" t="n">
-        <v>608.7311674548105</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E13" t="n">
-        <v>438.9731637055477</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F13" t="n">
-        <v>262.2661096673039</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G13" t="n">
-        <v>96.67483469313153</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.2545198578214</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.012974428957</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2228561969181</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.706723377831</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1777.965526535476</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.634775761257</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.141669731599</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.095275553247</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.215829131702</v>
+        <v>2429.112734044803</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.782828384807</v>
+        <v>2150.679733297909</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.827320255238</v>
+        <v>1863.724225168339</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.800915841529</v>
+        <v>1591.697820754631</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.409161174942</v>
+        <v>1346.306066088043</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.98949048905</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2333.251642585547</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1895.109169768971</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1459.199384943416</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1025.424640101711</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>597.5572105109186</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8049892499153</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>96.67483469313153</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9295221460494</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.279814104227</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.339780357087</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2727.831084649823</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N14" t="n">
-        <v>3853.56206808627</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>4833.741734656576</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4833.741734656576</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4833.741734656576</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>4833.741734656576</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>4833.741734656576</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4613.674507529615</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4354.452204846632</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3991.835254780458</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3586.979800191491</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3167.837336770802</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2759.551213070455</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.8465796844243</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.3901185210666</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.2998296676199</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.1794149945736</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.7955766107352</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4104868769191</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7385078535891</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.2968328198015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>447.2968328198015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>447.2968328198015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>447.2968328198015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>447.2968328198015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>447.2968328198015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.741818077601</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.914596171941</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.459158620323</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.280514950925</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.943967950893</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.826450012893</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.503695746087</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6362599849667</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.1504807641875</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.1708717700628</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6091602532878</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D16" t="n">
-        <v>608.7311674548105</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E16" t="n">
-        <v>438.9731637055477</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F16" t="n">
-        <v>262.2661096673039</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G16" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.2545198578214</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.012974428957</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2228561969181</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.706723377831</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.965526535476</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.634775761257</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.141669731599</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2695.095275553247</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.215829131702</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.782828384807</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.827320255238</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.800915841529</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.409161174942</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.98949048905</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2525.811823092179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.669350275602</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.759565450046</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.984820608342</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>790.1173910175495</v>
+        <v>793.2056155771596</v>
       </c>
       <c r="G17" t="n">
-        <v>388.7195596408134</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>99.58940508402964</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>99.17261571116964</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>534.4273031640876</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.777595122266</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2434.488393443128</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2434.488393443128</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>2434.488393443128</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3414.668060013435</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4242.97793484683</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4789.476720805425</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>4958.630785558482</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4958.630785558481</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4806.234688036246</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4547.012385353262</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4184.395435287089</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3779.539980698122</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.397517277433</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2952.111393577086</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>605.3443607024624</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.8878995391047</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.797610685658</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.6771960126117</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>226.2933576287733</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.9082678949572</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>99.17261571116964</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>125.2362888716272</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.7946138378396</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1104.500660463563</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1104.500660463563</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1104.500660463563</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1104.500660463563</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1104.500660463563</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1104.500660463563</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1645.239599095639</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1762.412377189979</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.956939638362</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.778295968963</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1392.441748968932</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1193.324231030931</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1008.001476764125</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>853.1340410030048</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.6482617822255</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>808.6664531287822</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C19" t="n">
-        <v>636.1047416120073</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="D19" t="n">
-        <v>470.2267488135299</v>
+        <v>783.7002322972895</v>
       </c>
       <c r="E19" t="n">
-        <v>300.4687450642668</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>123.7616910260229</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>99.17261571116964</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H19" t="n">
-        <v>99.17261571116964</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>99.17261571116964</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.7523008758595</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>460.5107554469951</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.7206372149561</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1338.204504395869</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1780.463307553514</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2200.132556779295</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.639450749637</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.83222561397</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.83222561397</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2556.590856911966</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T19" t="n">
-        <v>2310.711410490421</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U19" t="n">
-        <v>2032.278409743527</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V19" t="n">
-        <v>1745.322901613957</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W19" t="n">
-        <v>1473.296497200249</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X19" t="n">
-        <v>1227.904742533661</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000.485071847769</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436394</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,28 +5759,28 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M20" t="n">
-        <v>3168.718933692368</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N20" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
         <v>4550.100609912873</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883917</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716167</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
         <v>2090.757574835212</v>
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.20561557716</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004238</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436401</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5990,49 +5990,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.671098481817</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N23" t="n">
-        <v>3137.402081918264</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O23" t="n">
-        <v>4117.581748488571</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P23" t="n">
-        <v>4945.891623321967</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q23" t="n">
-        <v>4945.891623321967</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6066,7 +6066,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K24" t="n">
         <v>1107.588885023173</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883918</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716167</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731395</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238767</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>126.849915585633</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6227,25 +6227,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K27" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309358</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2568.557051026812</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2322.677604605267</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2044.244603858372</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,16 +6464,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1286.300469346935</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2443.348304557486</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
         <v>3569.079287993933</v>
@@ -6537,31 +6537,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K30" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6646,13 +6646,13 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
         <v>1889.413325832886</v>
@@ -6677,22 +6677,22 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6701,49 +6701,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688178</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321677</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532228</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968675</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2525.854933458239</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2088.129250014523</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F35" t="n">
-        <v>791.8276588750509</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>390.8466168711749</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.133251687251</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>102.133251687251</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1177.19321794011</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2334.241053150661</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N35" t="n">
-        <v>3459.972036587108</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>4440.151703157415</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>4937.508519609495</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4937.508519609495</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4544.971548855024</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4182.77138816171</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3359.607048897774</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2951.737714570288</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.133251687251</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.133251687251</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>404.9109080547863</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>404.9109080547863</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>404.9109080547863</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>404.9109080547863</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>404.9109080547863</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1224.634074533984</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.37301316606</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>977.0539455316076</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>804.9090233876925</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>639.4478199620752</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>470.1066055856724</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>293.8163409202886</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>128.6418553189762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>128.6418553189762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>464.2883819517567</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>882.9067589840579</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O37" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P37" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q37" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R37" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S37" t="n">
-        <v>2722.060823704771</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2476.598166656087</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2198.581955282052</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1912.043236525342</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1640.433621484494</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1395.458656190767</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1168.455774877735</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2525.85493345824</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2088.129250014524</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>791.8276588750509</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>390.8466168711748</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2582.520192247198</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3562.699858817504</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4391.009733650901</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4937.508519609495</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4544.971548855025</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4182.771388161711</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3359.607048897775</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2951.737714570288</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.1969248477086</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J39" t="n">
-        <v>452.755249813921</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>977.0539455316077</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>804.9090233876926</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>639.4478199620753</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>470.1066055856726</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>293.8163409202888</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>128.6418553189764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>128.6418553189764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>464.2883819517567</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>882.9067589840579</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.466419851295</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2722.060823704771</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2476.598166656087</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2198.581955282052</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1912.043236525343</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1640.433621484494</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1395.458656190767</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1168.455774877735</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2523.357152440203</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2085.631468996486</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1650.13847354379</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1216.780518074945</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>789.3298778570128</v>
+        <v>793.20561557716</v>
       </c>
       <c r="G41" t="n">
-        <v>388.3488358531367</v>
+        <v>391.8077842004238</v>
       </c>
       <c r="H41" t="n">
-        <v>99.63547066921292</v>
+        <v>102.6776296436401</v>
       </c>
       <c r="I41" t="n">
-        <v>99.63547066921292</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>534.8901581221309</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>643.7550819904824</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1718.815048243342</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2875.862883453893</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>4001.59386689034</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>4981.773533460646</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4981.773533460646</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4981.773533460646</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>4981.773533460646</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>4981.773533460646</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4801.279281147109</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4542.473767836987</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4180.273607143673</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3775.834941927566</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3357.109267879737</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2949.23993355225</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>605.8072156605057</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>499.350754497148</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>404.2604656437013</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.140050970655</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>226.7562125868166</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>141.3711228530005</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>99.63547066921292</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>99.63547066921292</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>99.63547066921292</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>99.63547066921292</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1054.178519480317</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1054.178519480317</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1054.178519480317</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1054.178519480317</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1762.875232148022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1762.875232148022</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1762.875232148022</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1699.419794596405</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1569.241150927006</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1392.904603926975</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1193.787085988974</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1008.464331722168</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>853.5968959610481</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.1111167402688</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>974.5561645135696</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C43" t="n">
-        <v>802.4112423696545</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D43" t="n">
-        <v>636.9500389440371</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E43" t="n">
-        <v>467.6088245676344</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>291.3185599022506</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>126.1440743009381</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>99.63547066921292</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>99.63547066921292</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.6236510982429</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7906009337186</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>880.4089779660197</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1340.301340411273</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1782.968638833258</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.046383323379</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.961772558061</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2719.563042686733</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2719.563042686733</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2719.563042686733</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2474.100385638048</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2196.084174264014</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1909.545455507304</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1637.935840466456</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1392.960875172728</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.957993859697</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2520.268927880593</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2082.543244436876</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1647.05024898418</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1213.692293515335</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>786.2416532974028</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>385.2606112935267</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>96.54724610960294</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>96.54724610960294</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.8019335625208</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>531.8019335625208</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1606.86189981538</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2763.909735025931</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2763.909735025931</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3283.399579935099</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4111.709454768496</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4658.20824072709</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>4827.362305480146</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>4798.1910565875</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4798.1910565875</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4539.385543277375</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4177.185382584063</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3772.746717367956</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3354.021043320127</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2946.151708992641</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.7189911008958</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.262529937538</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.1722410840913</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.051826411045</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.6679880272066</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.2828982933905</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.54724610960294</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>96.54724610960294</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>96.54724610960294</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>399.3249024771382</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>399.3249024771382</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>399.3249024771382</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>399.3249024771382</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>399.3249024771382</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1219.048068956336</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1759.787007588412</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.787007588412</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.331570036795</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.152926367397</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1389.816379367365</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.698861429364</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.376107162558</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.5086714014382</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.0228921806589</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>944.9593363222342</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C46" t="n">
-        <v>772.8144141783191</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>607.3532107527018</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>438.0119963762991</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>261.7217317109153</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>96.54724610960294</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>96.54724610960294</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>96.54724610960294</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.5354265386329</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.7023763741086</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>877.3207534064097</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1337.213115851663</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1779.880414273647</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2199.958158763769</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2547.873547998451</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2716.474818127123</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2716.474818127123</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2557.650238797979</v>
+        <v>2642.287896536276</v>
       </c>
       <c r="T46" t="n">
-        <v>2444.503557446713</v>
+        <v>2396.408450114731</v>
       </c>
       <c r="U46" t="n">
-        <v>2166.487346072679</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V46" t="n">
-        <v>1879.948627315969</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W46" t="n">
-        <v>1608.339012275121</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X46" t="n">
-        <v>1363.364046981393</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y46" t="n">
-        <v>1136.361165668361</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8061,7 +8061,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>42.55209558322787</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>72.80589558611325</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>30.91440664741776</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,16 +8374,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>310.9272166398487</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238425</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8696,13 +8696,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>857.0093219741839</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,22 +8933,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>289.3851558512483</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,10 +9167,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1076.475553859457</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9407,22 +9407,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O20" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,13 +9638,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -9653,13 +9653,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>168.8387779969844</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>301.5463146682411</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>-5.681602616057837e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,10 +9948,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>687.6096162327044</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,19 +10112,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>756.3484258820585</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
@@ -10185,10 +10185,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>687.6096162327044</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10364,7 +10364,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>502.3806226788693</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>305.8360165328639</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>137.0929241373656</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11060,28 +11060,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>109.9645695639915</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,16 +11133,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,19 +11297,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
-        <v>524.7372170799681</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>305.8360165328639</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>53.11057571601649</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,10 +23464,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>114.1599680048249</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>187.7491540145763</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>66.99441830867879</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>58.58727362741793</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>8.789189859683717</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627267</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>61.11721065853207</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.2363335358519</v>
+        <v>139.5921776627222</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>61.11721065853187</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.2363335358519</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25676,10 +25676,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.40273359886996</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>38.76462358615908</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>111.8470134919899</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.36072825394001</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.2363335358519</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>53.52319719514981</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4539333765604</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.0905310873978</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.36072825394001</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26068,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>81.78272691405301</v>
       </c>
       <c r="T46" t="n">
-        <v>130.9928159404446</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>525457.6140688257</v>
+        <v>540253.6568959804</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>525457.6140688257</v>
+        <v>542917.7169495601</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>544979.7829866874</v>
+        <v>568243.9379815873</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>544979.7829866874</v>
+        <v>568243.9379815874</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>555382.3441619707</v>
+        <v>568243.9379815874</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>568243.9379815874</v>
+        <v>568243.9379815873</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>568368.4542490009</v>
+        <v>568243.9379815874</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>568368.4542490009</v>
+        <v>568243.9379815874</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>557965.8930737176</v>
+        <v>568243.9379815874</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>545104.2992541009</v>
+        <v>568243.9379815874</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>455725.2219068473</v>
+        <v>455725.2219068471</v>
       </c>
       <c r="C2" t="n">
         <v>455725.2219068473</v>
       </c>
       <c r="D2" t="n">
-        <v>455725.2219068472</v>
+        <v>455725.2219068473</v>
       </c>
       <c r="E2" t="n">
-        <v>429494.6338622676</v>
+        <v>447828.9465167494</v>
       </c>
       <c r="F2" t="n">
-        <v>429494.6338622676</v>
+        <v>447828.9465167494</v>
       </c>
       <c r="G2" t="n">
-        <v>437692.8172494067</v>
+        <v>447828.9465167493</v>
       </c>
       <c r="H2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167493</v>
       </c>
       <c r="I2" t="n">
         <v>447828.9465167494</v>
@@ -26338,22 +26338,22 @@
         <v>447828.9465167496</v>
       </c>
       <c r="K2" t="n">
+        <v>447828.9465167496</v>
+      </c>
+      <c r="L2" t="n">
+        <v>447828.9465167496</v>
+      </c>
+      <c r="M2" t="n">
+        <v>447828.9465167497</v>
+      </c>
+      <c r="N2" t="n">
+        <v>447828.9465167496</v>
+      </c>
+      <c r="O2" t="n">
         <v>447828.9465167495</v>
       </c>
-      <c r="L2" t="n">
-        <v>447828.9465167494</v>
-      </c>
-      <c r="M2" t="n">
-        <v>448029.6259304063</v>
-      </c>
-      <c r="N2" t="n">
-        <v>448029.6259304064</v>
-      </c>
-      <c r="O2" t="n">
-        <v>439831.4425432673</v>
-      </c>
       <c r="P2" t="n">
-        <v>429695.3132759245</v>
+        <v>447828.9465167496</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501654</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998241</v>
       </c>
       <c r="E3" t="n">
-        <v>234126.8263659351</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8557.553879112202</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>10415.38475254762</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>111014.4653449903</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877281</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622019</v>
       </c>
       <c r="M3" t="n">
-        <v>195343.3712995837</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26418,22 @@
         <v>212093.1194372179</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>179718.6327917064</v>
       </c>
       <c r="D4" t="n">
-        <v>212093.119437218</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>90994.07968777527</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="F4" t="n">
-        <v>90994.07968777526</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="G4" t="n">
-        <v>92730.97252323628</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="H4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="I4" t="n">
         <v>94878.44464875289</v>
@@ -26445,19 +26445,19 @@
         <v>94878.44464875289</v>
       </c>
       <c r="L4" t="n">
-        <v>94878.44464875285</v>
+        <v>94878.44464875288</v>
       </c>
       <c r="M4" t="n">
-        <v>95206.69569251797</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="N4" t="n">
-        <v>95206.69569251797</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="O4" t="n">
-        <v>93469.80285705693</v>
+        <v>94878.44464875286</v>
       </c>
       <c r="P4" t="n">
-        <v>91322.33073154032</v>
+        <v>94878.44464875286</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800265</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73472.87436677996</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>73472.87436677996</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>75371.18794048892</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77655.95995743989</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77655.95995743989</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>75757.64638373091</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73410.59571842733</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42016.01367269713</v>
+        <v>42016.01367269696</v>
       </c>
       <c r="C6" t="n">
-        <v>184207.314332407</v>
+        <v>137462.6074121217</v>
       </c>
       <c r="D6" t="n">
-        <v>184207.3143324069</v>
+        <v>196095.5665286641</v>
       </c>
       <c r="E6" t="n">
-        <v>30900.85344177729</v>
+        <v>92853.9297017716</v>
       </c>
       <c r="F6" t="n">
-        <v>265027.6798077124</v>
+        <v>275209.0389228213</v>
       </c>
       <c r="G6" t="n">
-        <v>261033.1029065693</v>
+        <v>275209.0389228212</v>
       </c>
       <c r="H6" t="n">
-        <v>264816.8785096564</v>
+        <v>275209.0389228212</v>
       </c>
       <c r="I6" t="n">
-        <v>275232.263262204</v>
+        <v>275209.0389228213</v>
       </c>
       <c r="J6" t="n">
-        <v>164217.797917214</v>
+        <v>164194.5735778313</v>
       </c>
       <c r="K6" t="n">
-        <v>275232.2632622041</v>
+        <v>222163.1842840487</v>
       </c>
       <c r="L6" t="n">
-        <v>275232.263262204</v>
+        <v>265816.7371961995</v>
       </c>
       <c r="M6" t="n">
-        <v>79823.59898086474</v>
+        <v>123008.867984834</v>
       </c>
       <c r="N6" t="n">
-        <v>275166.9702804486</v>
+        <v>275209.0389228215</v>
       </c>
       <c r="O6" t="n">
-        <v>270603.9933024794</v>
+        <v>275209.0389228215</v>
       </c>
       <c r="P6" t="n">
-        <v>264962.3868259569</v>
+        <v>275209.0389228215</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1208.435433664144</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1208.435433664144</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1239.65769638962</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1245.443383365161</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1206.840576370037</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.412621479131442</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483604</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939223</v>
       </c>
       <c r="E4" t="n">
-        <v>784.1395761440397</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>31.22226272547641</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>38.60280699512477</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201046</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483604</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939223</v>
       </c>
       <c r="M4" t="n">
-        <v>782.5447188499322</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483604</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939223</v>
       </c>
       <c r="M4" t="n">
-        <v>784.1395761440397</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>31.22226272547641</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>38.60280699512477</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>356.3413866025196</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>72.71868052833509</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>91.64334847620665</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,10 +27546,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>67.8842041684461</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>113.7278999628232</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27625,7 +27625,7 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>155.6663260148199</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27673,7 +27673,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>115.5496942991898</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>79.64395877249352</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,22 +27856,22 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>11.18956716623592</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>72.71868052833509</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>79.64395877249352</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4126214791313976</v>
+        <v>-3.916515846374476e-13</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.4126214791313976</v>
+        <v>3.582082778545252e-12</v>
       </c>
       <c r="N37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4126214791313976</v>
+        <v>-5.268850791002158e-13</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34781,7 +34781,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,7 +34793,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>42.55209558322787</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>72.80589558611325</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>30.91440664741776</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,10 +35033,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>310.9272166398487</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238425</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,19 +35410,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>857.0093219741839</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,28 +35647,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>289.3851558512483</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,13 +35884,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1076.475553859457</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,22 +36127,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471158</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O20" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36358,28 +36358,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>168.8387779969844</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>301.5463146682411</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36595,7 +36595,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36616,7 +36616,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>-2.268258214386391e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>687.6096162327044</v>
@@ -36689,13 +36689,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,19 +36832,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>756.3484258820585</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>687.6096162327044</v>
@@ -36926,13 +36926,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37069,7 +37069,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37084,7 +37084,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>502.3806226788693</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>305.8360165328639</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,13 +37400,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.86684891821207</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645622</v>
       </c>
       <c r="N37" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>137.0929241373656</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.86684891821207</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>447.1386852747316</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.3043132612856</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>109.9645695639915</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
-        <v>964.1848977889937</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37874,13 +37874,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.86684891821207</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.846845487173</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.5377398436901</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,22 +38014,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
-        <v>524.7372170799681</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>305.8360165328639</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.86684891821206</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>447.1386852747319</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>424.3209540304256</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
